--- a/pali/PaliSheets.xlsx
+++ b/pali/PaliSheets.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="18"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Term" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Kāraka" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Samāsa" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Taddhita" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Kita" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="kibbidhāna" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Pronous Example" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Personal Pronous" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Sabbanāma" sheetId="14" state="visible" r:id="rId14"/>
@@ -33972,349 +33972,349 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="160" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="161" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Sarasa-Gothic"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Sarasa-Gothic"/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Sarasa-Gothic"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
       <name val="Sarasa-Gothic"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C0006"/>
       <name val="Sarasa-Gothic"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Sarasa-Gothic"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="3"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
       <name val="Sarasa-Gothic"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Sarasa-Gothic"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.000000"/>
+      <color theme="3"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18.000000"/>
+      <color theme="3"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="18.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Sarasa-Gothic"/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
       <name val="Sarasa-Gothic"/>
-      <color indexed="20"/>
-      <sz val="11.000000"/>
-      <u/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13.000000"/>
+      <color theme="3"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color indexed="65"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="4"/>
       <name val="Sarasa-Gothic"/>
-      <color indexed="4"/>
-      <sz val="11.000000"/>
-      <u/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <i/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <i/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Pali"/>
-      <b/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="16"/>
       <name val="Pali"/>
-      <b/>
-      <color indexed="16"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
       <name val="Pali"/>
-      <b/>
-      <color rgb="FFC00000"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF00B0F0"/>
       <name val="Pali"/>
-      <color rgb="FF00B0F0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF7030A0"/>
       <name val="Pali"/>
-      <color rgb="FF7030A0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="4" tint="0.40000000000000002"/>
       <name val="Pali"/>
-      <color theme="4" tint="0.40000000000000002"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Pali"/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Pali"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Pali"/>
       <b/>
       <sz val="11.000000"/>
+      <name val="Pali"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="3"/>
       <name val="Pali"/>
-      <color theme="3"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Pali"/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="16"/>
       <name val="Pali"/>
-      <color indexed="16"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="21"/>
       <name val="Pali"/>
-      <color indexed="21"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="3" tint="0.499984740745262"/>
       <name val="Pali"/>
-      <color theme="3" tint="0.499984740745262"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <strike/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="4"/>
       <name val="Pali"/>
-      <b/>
-      <color theme="4"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Sarasa-Gothic"/>
-      <b/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="16"/>
       <name val="Pali"/>
-      <b/>
-      <color indexed="16"/>
-      <sz val="12.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.000000"/>
+      <color theme="3"/>
       <name val="Pali"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15.000000"/>
     </font>
     <font>
+      <sz val="13.000000"/>
+      <color rgb="FF7C7C7C"/>
       <name val="Pali"/>
-      <color rgb="FF7C7C7C"/>
-      <sz val="13.000000"/>
     </font>
     <font>
+      <sz val="13.000000"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Pali"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <sz val="13.000000"/>
     </font>
     <font>
+      <sz val="13.000000"/>
+      <color indexed="2"/>
       <name val="Pali"/>
-      <color indexed="2"/>
-      <sz val="13.000000"/>
     </font>
     <font>
+      <sz val="13.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <color theme="1"/>
-      <sz val="13.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="14.000000"/>
     </font>
     <font>
+      <i/>
+      <sz val="11.000000"/>
+      <color theme="3" tint="0.499984740745262"/>
       <name val="Pali"/>
-      <i/>
-      <color theme="3" tint="0.499984740745262"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF00B0F0"/>
       <name val="Pali"/>
-      <b/>
-      <color rgb="FF00B0F0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Pali"/>
       <b/>
       <sz val="14.000000"/>
+      <name val="Pali"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF00B050"/>
       <name val="Pali"/>
-      <color rgb="FF00B050"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="9" tint="-0.25"/>
       <name val="Pali"/>
-      <b/>
-      <color theme="9" tint="-0.25"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="9" tint="-0.25"/>
       <name val="Pali"/>
-      <color theme="9" tint="-0.25"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
       <name val="Pali"/>
-      <color indexed="20"/>
-      <sz val="11.000000"/>
-      <u/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF7030A0"/>
       <name val="Pali"/>
-      <b/>
-      <color rgb="FF7030A0"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="16.000000"/>
+      <color indexed="16"/>
       <name val="Pali"/>
-      <b/>
-      <color indexed="16"/>
-      <sz val="16.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF92D050"/>
       <name val="Pali"/>
-      <b/>
-      <color rgb="FF92D050"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
       <name val="Pali"/>
-      <color theme="10"/>
-      <sz val="11.000000"/>
-      <u/>
     </font>
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Pali"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Pali"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="55">
@@ -34645,31 +34645,31 @@
   </fills>
   <borders count="191">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34684,7 +34684,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34699,7 +34699,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34714,34 +34714,34 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -34756,7 +34756,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34771,10 +34771,10 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
@@ -34784,10 +34784,10 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -34797,7 +34797,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34812,7 +34812,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34827,7 +34827,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34842,7 +34842,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34857,10 +34857,10 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
@@ -34870,10 +34870,10 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -34883,7 +34883,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34898,7 +34898,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34913,7 +34913,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34928,7 +34928,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34943,7 +34943,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34958,7 +34958,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34973,7 +34973,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -34988,10 +34988,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
@@ -35001,10 +35001,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -35014,7 +35014,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35026,19 +35026,19 @@
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35047,22 +35047,22 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35071,11 +35071,11 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35084,11 +35084,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35103,7 +35103,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35118,7 +35118,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35133,7 +35133,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35148,25 +35148,25 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35181,7 +35181,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35196,7 +35196,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35211,7 +35211,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35226,7 +35226,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35241,7 +35241,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35256,7 +35256,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35271,7 +35271,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35286,16 +35286,16 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35310,7 +35310,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35325,7 +35325,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35337,8 +35337,8 @@
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35347,9 +35347,9 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35361,8 +35361,8 @@
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35371,9 +35371,9 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35388,7 +35388,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35403,7 +35403,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35418,7 +35418,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35433,7 +35433,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35448,34 +35448,34 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -35485,7 +35485,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35494,11 +35494,11 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35507,11 +35507,11 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35526,7 +35526,7 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35541,7 +35541,7 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35556,31 +35556,31 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
       <bottom style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35589,22 +35589,22 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35619,7 +35619,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35634,27 +35634,27 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35669,7 +35669,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35684,7 +35684,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35699,7 +35699,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35714,7 +35714,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35729,7 +35729,7 @@
       <bottom style="thin">
         <color theme="1" tint="0"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35744,7 +35744,7 @@
       <bottom style="thin">
         <color theme="1" tint="0"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35759,7 +35759,7 @@
       <bottom style="thin">
         <color theme="1" tint="0"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35771,8 +35771,8 @@
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35781,11 +35781,11 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35794,11 +35794,11 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35807,9 +35807,9 @@
       <right style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35821,17 +35821,17 @@
       <top style="thin">
         <color theme="3" tint="0.749961851863155"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35843,8 +35843,8 @@
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35856,8 +35856,8 @@
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35866,9 +35866,9 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35877,11 +35877,11 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35890,11 +35890,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35903,11 +35903,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35919,8 +35919,8 @@
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35929,9 +35929,9 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35940,9 +35940,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35951,11 +35951,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35964,11 +35964,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35977,11 +35977,11 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -35996,7 +35996,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36011,7 +36011,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36023,44 +36023,44 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </top>
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </top>
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </right>
@@ -36070,7 +36070,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36082,8 +36082,8 @@
       <top style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36098,7 +36098,7 @@
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36107,9 +36107,9 @@
       <right style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36118,31 +36118,31 @@
       <right style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="3" tint="0.749992370372631"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36157,7 +36157,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36172,7 +36172,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36187,7 +36187,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36202,7 +36202,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36214,8 +36214,8 @@
       <top style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36230,7 +36230,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36242,8 +36242,8 @@
       <top style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36252,11 +36252,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36265,11 +36265,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36281,8 +36281,8 @@
       <top style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36297,7 +36297,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36306,9 +36306,9 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36317,9 +36317,9 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36328,11 +36328,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36341,11 +36341,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36354,11 +36354,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14999999999999999"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36373,7 +36373,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36388,7 +36388,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36400,8 +36400,8 @@
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36413,8 +36413,8 @@
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36429,7 +36429,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36444,7 +36444,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36459,7 +36459,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36468,11 +36468,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36481,11 +36481,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36494,38 +36494,38 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
@@ -36535,7 +36535,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36550,7 +36550,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36565,7 +36565,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36580,7 +36580,7 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36589,11 +36589,11 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36602,11 +36602,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36621,7 +36621,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36636,7 +36636,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36651,80 +36651,80 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36733,50 +36733,50 @@
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -36786,42 +36786,42 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36836,7 +36836,7 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36851,7 +36851,7 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36866,23 +36866,23 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -36892,34 +36892,34 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
@@ -36929,45 +36929,45 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -36977,7 +36977,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -36992,47 +36992,47 @@
       <bottom style="thin">
         <color theme="0" tint="-0.25"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="0" tint="-0.25"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37047,7 +37047,7 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37062,7 +37062,7 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37077,7 +37077,7 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37089,8 +37089,8 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37102,8 +37102,8 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37118,7 +37118,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -37133,7 +37133,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -37196,7 +37196,7 @@
     <xf fontId="6" fillId="25" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
@@ -37220,7 +37220,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="12" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
@@ -37229,7 +37229,7 @@
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="14" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
@@ -37241,7 +37241,7 @@
     <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="17" fillId="31" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
@@ -40734,7 +40734,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -41814,7 +41814,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -44461,7 +44461,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -45016,7 +45016,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -45599,7 +45599,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -46421,7 +46421,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -47674,7 +47674,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -49773,7 +49773,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -50535,7 +50535,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -55330,7 +55330,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -57650,7 +57650,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -58369,7 +58369,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -59246,7 +59246,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -60920,7 +60920,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -61583,7 +61583,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -62558,7 +62558,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -62848,7 +62848,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -63365,7 +63365,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -64359,7 +64359,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -64858,7 +64858,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>